--- a/Regression/Inbound/Inbound_Enrollments_campaign_test/b_files_for_testing_02/inbound_data_file.xlsx
+++ b/Regression/Inbound/Inbound_Enrollments_campaign_test/b_files_for_testing_02/inbound_data_file.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMALYGIN\Downloads\Regression-master (5)\Regression-master\Regression\Inbound\Inbound_Enrollments_campaign_test\b_files_for_testing_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BC3F10-7A21-4329-9E1B-A77ADE04096E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D245F126-5E6F-4425-B8DF-78C818CFDFB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AF$193</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4047" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3924" uniqueCount="347">
   <si>
     <t>ts</t>
   </si>
@@ -1072,15 +1073,6 @@
   </si>
   <si>
     <t>OE</t>
-  </si>
-  <si>
-    <t>BGG</t>
-  </si>
-  <si>
-    <t>JESSUP</t>
-  </si>
-  <si>
-    <t>ELKRIDGE</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1120,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1150,6 +1142,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1352,6 +1356,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1692,10 +1698,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="AA202" sqref="AA202:AB208"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16604,314 +16610,128 @@
       </c>
     </row>
     <row r="194" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="G194" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H194" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I194" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J194" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
       <c r="K194" s="4"/>
-      <c r="L194" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="M194" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N194" s="15">
-        <v>8000</v>
-      </c>
-      <c r="O194" s="31">
-        <v>594</v>
-      </c>
-      <c r="P194" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q194" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="R194" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="S194" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="T194" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="U194" s="2" t="s">
-        <v>302</v>
-      </c>
+      <c r="L194" s="13"/>
+      <c r="M194" s="15"/>
+      <c r="N194" s="15"/>
+      <c r="O194" s="31"/>
+      <c r="P194" s="7"/>
+      <c r="Q194" s="40"/>
+      <c r="R194" s="5"/>
+      <c r="S194" s="5"/>
+      <c r="T194" s="5"/>
+      <c r="U194" s="2"/>
       <c r="V194" s="4"/>
-      <c r="W194" s="24" t="s">
-        <v>283</v>
-      </c>
+      <c r="W194" s="24"/>
       <c r="X194" s="4"/>
       <c r="Y194" s="4"/>
       <c r="Z194" s="4"/>
-      <c r="AA194" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB194" s="46">
-        <v>20794</v>
-      </c>
+      <c r="AA194" s="46"/>
+      <c r="AB194" s="46"/>
       <c r="AC194" s="4"/>
       <c r="AD194" s="4"/>
-      <c r="AE194" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="AE194" s="4"/>
     </row>
     <row r="195" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F195" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="G195" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H195" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I195" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J195" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
       <c r="K195" s="4"/>
-      <c r="L195" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="M195" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N195" s="16">
-        <v>8001</v>
-      </c>
-      <c r="O195" s="33">
-        <v>594</v>
-      </c>
-      <c r="P195" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q195" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="R195" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S195" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="T195" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="U195" s="3" t="s">
-        <v>307</v>
-      </c>
+      <c r="L195" s="14"/>
+      <c r="M195" s="16"/>
+      <c r="N195" s="16"/>
+      <c r="O195" s="33"/>
+      <c r="P195" s="7"/>
+      <c r="Q195" s="41"/>
+      <c r="R195" s="6"/>
+      <c r="S195" s="6"/>
+      <c r="T195" s="6"/>
+      <c r="U195" s="3"/>
       <c r="V195" s="4"/>
-      <c r="W195" s="22" t="s">
-        <v>283</v>
-      </c>
+      <c r="W195" s="22"/>
       <c r="X195" s="4"/>
       <c r="Y195" s="4"/>
       <c r="Z195" s="4"/>
-      <c r="AA195" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB195" s="46">
-        <v>21075</v>
-      </c>
+      <c r="AA195" s="46"/>
+      <c r="AB195" s="46"/>
       <c r="AC195" s="4"/>
       <c r="AD195" s="4"/>
-      <c r="AE195" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="AE195" s="4"/>
     </row>
     <row r="196" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F196" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="G196" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H196" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I196" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J196" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
       <c r="K196" s="4"/>
-      <c r="L196" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="M196" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N196" s="16">
-        <v>8002</v>
-      </c>
-      <c r="O196" s="33">
-        <v>594</v>
-      </c>
-      <c r="P196" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q196" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="R196" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S196" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="T196" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="U196" s="3" t="s">
-        <v>307</v>
-      </c>
+      <c r="L196" s="14"/>
+      <c r="M196" s="16"/>
+      <c r="N196" s="16"/>
+      <c r="O196" s="33"/>
+      <c r="P196" s="7"/>
+      <c r="Q196" s="41"/>
+      <c r="R196" s="6"/>
+      <c r="S196" s="6"/>
+      <c r="T196" s="6"/>
+      <c r="U196" s="3"/>
       <c r="V196" s="4"/>
-      <c r="W196" s="22" t="s">
-        <v>283</v>
-      </c>
+      <c r="W196" s="22"/>
       <c r="X196" s="4"/>
       <c r="Y196" s="4"/>
       <c r="Z196" s="4"/>
-      <c r="AA196" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB196" s="46">
-        <v>21075</v>
-      </c>
+      <c r="AA196" s="46"/>
+      <c r="AB196" s="46"/>
       <c r="AC196" s="4"/>
       <c r="AD196" s="4"/>
-      <c r="AE196" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="AE196" s="4"/>
     </row>
     <row r="197" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="G197" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H197" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I197" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J197" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
       <c r="K197" s="4"/>
-      <c r="L197" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="M197" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N197" s="15">
-        <v>8000</v>
-      </c>
-      <c r="O197" s="31">
-        <v>594</v>
-      </c>
-      <c r="P197" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q197" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="R197" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="S197" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="T197" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="U197" s="2" t="s">
-        <v>302</v>
-      </c>
+      <c r="L197" s="13"/>
+      <c r="M197" s="15"/>
+      <c r="N197" s="15"/>
+      <c r="O197" s="31"/>
+      <c r="P197" s="7"/>
+      <c r="Q197" s="40"/>
+      <c r="R197" s="5"/>
+      <c r="S197" s="5"/>
+      <c r="T197" s="5"/>
+      <c r="U197" s="2"/>
       <c r="V197" s="4"/>
-      <c r="W197" s="24" t="s">
-        <v>283</v>
-      </c>
+      <c r="W197" s="24"/>
       <c r="X197" s="4"/>
       <c r="Y197" s="4"/>
       <c r="Z197" s="4"/>
@@ -16919,76 +16739,32 @@
       <c r="AB197" s="4"/>
       <c r="AC197" s="4"/>
       <c r="AD197" s="4"/>
-      <c r="AE197" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="AE197" s="4"/>
     </row>
     <row r="198" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F198" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="G198" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H198" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I198" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J198" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4"/>
+      <c r="J198" s="4"/>
       <c r="K198" s="4"/>
-      <c r="L198" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="M198" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N198" s="16">
-        <v>8001</v>
-      </c>
-      <c r="O198" s="33">
-        <v>594</v>
-      </c>
-      <c r="P198" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q198" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="R198" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S198" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="T198" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="U198" s="3" t="s">
-        <v>307</v>
-      </c>
+      <c r="L198" s="14"/>
+      <c r="M198" s="16"/>
+      <c r="N198" s="16"/>
+      <c r="O198" s="33"/>
+      <c r="P198" s="7"/>
+      <c r="Q198" s="41"/>
+      <c r="R198" s="6"/>
+      <c r="S198" s="6"/>
+      <c r="T198" s="6"/>
+      <c r="U198" s="3"/>
       <c r="V198" s="4"/>
-      <c r="W198" s="22" t="s">
-        <v>283</v>
-      </c>
+      <c r="W198" s="22"/>
       <c r="X198" s="4"/>
       <c r="Y198" s="4"/>
       <c r="Z198" s="4"/>
@@ -16996,76 +16772,32 @@
       <c r="AB198" s="4"/>
       <c r="AC198" s="4"/>
       <c r="AD198" s="4"/>
-      <c r="AE198" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="AE198" s="4"/>
     </row>
     <row r="199" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F199" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="G199" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H199" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I199" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J199" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+      <c r="J199" s="4"/>
       <c r="K199" s="4"/>
-      <c r="L199" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="M199" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N199" s="16">
-        <v>8002</v>
-      </c>
-      <c r="O199" s="33">
-        <v>594</v>
-      </c>
-      <c r="P199" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q199" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="R199" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S199" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="T199" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="U199" s="3" t="s">
-        <v>307</v>
-      </c>
+      <c r="L199" s="14"/>
+      <c r="M199" s="16"/>
+      <c r="N199" s="16"/>
+      <c r="O199" s="33"/>
+      <c r="P199" s="7"/>
+      <c r="Q199" s="41"/>
+      <c r="R199" s="6"/>
+      <c r="S199" s="6"/>
+      <c r="T199" s="6"/>
+      <c r="U199" s="3"/>
       <c r="V199" s="4"/>
-      <c r="W199" s="22" t="s">
-        <v>283</v>
-      </c>
+      <c r="W199" s="22"/>
       <c r="X199" s="4"/>
       <c r="Y199" s="4"/>
       <c r="Z199" s="4"/>
@@ -17073,9 +16805,7 @@
       <c r="AB199" s="4"/>
       <c r="AC199" s="4"/>
       <c r="AD199" s="4"/>
-      <c r="AE199" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="AE199" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AF193" xr:uid="{9D65FCE0-7A25-4E44-BA8A-C1C4A3D1CA60}"/>
@@ -17083,4 +16813,589 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EC759C-50DC-4B28-94AF-2802A61C300E}">
+  <dimension ref="A1:A114"/>
+  <sheetViews>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection sqref="A1:A114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="48">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="48">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="48">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="46">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="46">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="47">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="47">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="48">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="48">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="48">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="48">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="48">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="48">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="48">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="48">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>